--- a/Data in/Base Vehiculos.xlsx
+++ b/Data in/Base Vehiculos.xlsx
@@ -1,99 +1,211 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\Investigacion JC - PH\Data in\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="7650"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Hoja 1" sheetId="1" r:id="rId4"/>
+    <sheet name="Hoja 1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment authorId="0" ref="N1">
-      <text>
-        <t xml:space="preserve">costo fijo de usar el vehiculo
-	-Pitehr Hurtado</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="M1">
-      <text>
-        <t xml:space="preserve">tiempo de servicio entre paradas
-	-Pitehr Hurtado</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="L1">
-      <text>
-        <t xml:space="preserve">tiempo macximo permitido para servir in hr
-	-Pitehr Hurtado</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="K1">
-      <text>
-        <t xml:space="preserve">velocidad entre paradas en km/hr
-	-Pitehr Hurtado</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="J1">
-      <text>
-        <t xml:space="preserve">tiempo de setup de la ruta fijo, en hrs
-	-Pitehr Hurtado</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="I1">
-      <text>
-        <t xml:space="preserve">velocidad linehaul en km/hr
-	-Pitehr Hurtado</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="H1">
-      <text>
-        <t xml:space="preserve">factor de circuito del vehiculo
-	-Pitehr Hurtado</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="G1">
-      <text>
-        <t xml:space="preserve">tiempo de carga fijo requerido en hrs.
+    <comment ref="B1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>items
+	-Pitehr Hurtado</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>costo operacional por distancia del vehiculo ($/km)
+	-Pitehr Hurtado</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>costo operacional por tiempo del vehiculo ($/hr)
+	-Pitehr Hurtado</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>tiempo requerido para despachar el vehiculo, en hrs
+	-Pitehr Hurtado</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>costo de salario por por operar el vehiculo, ($/hr)
+	-Pitehr Hurtado</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>tiempo de carga fijo requerido en hrs.
 	-Pitehr Hurtado
 para cargar el vehiculo
 	-Pitehr Hurtado</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="F1">
-      <text>
-        <t xml:space="preserve">costo de salario por por operar el vehiculo, ($/hr)
-	-Pitehr Hurtado</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="E1">
-      <text>
-        <t xml:space="preserve">tiempo requerido para despachar el vehiculo, en hrs
-	-Pitehr Hurtado</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="D1">
-      <text>
-        <t xml:space="preserve">costo operacional por tiempo del vehiculo ($/hr)
-	-Pitehr Hurtado</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="C1">
-      <text>
-        <t xml:space="preserve">costo operacional por distancia del vehiculo ($/km)
-	-Pitehr Hurtado</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="B1">
-      <text>
-        <t xml:space="preserve">items
-	-Pitehr Hurtado</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>factor de circuito del vehiculo
+	-Pitehr Hurtado</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>velocidad linehaul en km/hr
+	-Pitehr Hurtado</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>tiempo de setup de la ruta fijo, en hrs
+	-Pitehr Hurtado</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>velocidad entre paradas en km/hr
+	-Pitehr Hurtado</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>tiempo macximo permitido para servir in hr
+	-Pitehr Hurtado</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>tiempo de servicio entre paradas
+	-Pitehr Hurtado</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>costo fijo de usar el vehiculo
+	-Pitehr Hurtado</t>
+        </r>
       </text>
     </comment>
   </commentList>
@@ -169,21 +281,23 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
@@ -194,46 +308,49 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="6">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="2" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -423,20 +540,25 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:Z4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -492,15 +614,15 @@
       <c r="Y1" s="2"/>
       <c r="Z1" s="2"/>
     </row>
-    <row r="2">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>14</v>
       </c>
       <c r="B2" s="3">
-        <v>15000.0</v>
+        <v>15</v>
       </c>
       <c r="C2" s="3">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>15</v>
@@ -509,16 +631,16 @@
         <v>16</v>
       </c>
       <c r="F2" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>15</v>
       </c>
       <c r="H2" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="I2" s="3">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="J2" s="3" t="s">
         <v>15</v>
@@ -527,24 +649,24 @@
         <v>15</v>
       </c>
       <c r="L2" s="3">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="M2" s="3" t="s">
         <v>17</v>
       </c>
       <c r="N2" s="3">
-        <v>5000.0</v>
+        <v>2000</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>18</v>
       </c>
       <c r="B3" s="3">
-        <v>50000.0</v>
+        <v>50</v>
       </c>
       <c r="C3" s="3">
-        <v>100.0</v>
+        <v>100</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>15</v>
@@ -553,38 +675,38 @@
         <v>19</v>
       </c>
       <c r="F3" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>20</v>
       </c>
       <c r="H3" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="I3" s="3">
-        <v>30.0</v>
+        <v>30</v>
       </c>
       <c r="J3" s="3" t="s">
         <v>20</v>
       </c>
       <c r="K3" s="3">
-        <v>30.0</v>
+        <v>30</v>
       </c>
       <c r="L3" s="3">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="M3" s="3" t="s">
         <v>17</v>
       </c>
       <c r="N3" s="3">
-        <v>50000.0</v>
+        <v>80000</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
       <c r="M4" s="5"/>
     </row>
   </sheetData>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>